--- a/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC1_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC1_TC2.xlsx
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.04826520173294598</v>
+        <v>0.05135085245750105</v>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="7" t="inlineStr">
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.1846728557195388</v>
+        <v>0.1979049916070554</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.18467285571953884, 'ngram_match_score': 0.04816838037936632, 'weighted_ngram_match_score': 0.10366930337644734, 'syntax_match_score': 0.4355716878402904, 'dataflow_match_score': 0.15128205128205127}</t>
+          <t>{'codebleu': 0.19790499160705538, 'ngram_match_score': 0.05125257286362113, 'weighted_ngram_match_score': 0.09615407512260674, 'syntax_match_score': 0.4519056261343013, 'dataflow_match_score': 0.19230769230769232}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.9181394228791255</v>
+        <v>0.7952258130289469</v>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
